--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAF741E-27E3-B142-963F-78F8021AE555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB71896-8D5C-2E40-AA47-414B899312F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="147">
   <si>
     <t>DOI</t>
   </si>
@@ -368,13 +368,106 @@
   </si>
   <si>
     <t>CAP (PFU/mL)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>EC50</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Equilibrium constant</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>RNA count</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Protein concentration</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Delta Delta Ct</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Radiant flux</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Radiant efficiency</t>
+  </si>
+  <si>
+    <t>Electrochemiluminescence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +481,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,7 +498,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -431,17 +532,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,15 +861,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="40.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,8 +888,23 @@
       <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -786,8 +920,23 @@
       <c r="E2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -803,8 +952,23 @@
       <c r="E3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -820,8 +984,23 @@
       <c r="E4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -837,8 +1016,23 @@
       <c r="E5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -854,8 +1048,23 @@
       <c r="E6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -871,8 +1080,23 @@
       <c r="E7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -888,8 +1112,23 @@
       <c r="E8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -905,8 +1144,23 @@
       <c r="E9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -922,8 +1176,23 @@
       <c r="E10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -939,8 +1208,23 @@
       <c r="E11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -956,8 +1240,23 @@
       <c r="E12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -973,8 +1272,23 @@
       <c r="E13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -990,8 +1304,23 @@
       <c r="E14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1007,8 +1336,23 @@
       <c r="E15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1024,8 +1368,23 @@
       <c r="E16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1041,8 +1400,23 @@
       <c r="E17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1058,8 +1432,23 @@
       <c r="E18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1075,8 +1464,23 @@
       <c r="E19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1092,8 +1496,23 @@
       <c r="E20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1109,8 +1528,23 @@
       <c r="E21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1126,8 +1560,23 @@
       <c r="E22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1143,8 +1592,23 @@
       <c r="E23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1160,8 +1624,23 @@
       <c r="E24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1177,8 +1656,23 @@
       <c r="E25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1194,8 +1688,23 @@
       <c r="E26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1211,8 +1720,23 @@
       <c r="E27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1228,8 +1752,23 @@
       <c r="E28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1245,8 +1784,23 @@
       <c r="E29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1262,8 +1816,23 @@
       <c r="E30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1279,8 +1848,23 @@
       <c r="E31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1296,8 +1880,23 @@
       <c r="E32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1313,8 +1912,23 @@
       <c r="E33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1330,8 +1944,23 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1347,8 +1976,23 @@
       <c r="E35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1364,8 +2008,23 @@
       <c r="E36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1381,8 +2040,23 @@
       <c r="E37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1398,8 +2072,23 @@
       <c r="E38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1415,8 +2104,23 @@
       <c r="E39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1432,8 +2136,23 @@
       <c r="E40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1449,8 +2168,23 @@
       <c r="E41" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1466,8 +2200,23 @@
       <c r="E42" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1483,8 +2232,23 @@
       <c r="E43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -1500,8 +2264,23 @@
       <c r="E44" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -1517,8 +2296,23 @@
       <c r="E45" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -1534,8 +2328,23 @@
       <c r="E46" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1551,8 +2360,23 @@
       <c r="E47" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -1568,8 +2392,23 @@
       <c r="E48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1585,8 +2424,23 @@
       <c r="E49" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1602,8 +2456,23 @@
       <c r="E50" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1619,8 +2488,23 @@
       <c r="E51" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -1636,8 +2520,23 @@
       <c r="E52" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" t="s">
+        <v>136</v>
+      </c>
+      <c r="J52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -1653,8 +2552,23 @@
       <c r="E53" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" t="s">
+        <v>142</v>
+      </c>
+      <c r="J53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -1670,8 +2584,23 @@
       <c r="E54" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -1687,8 +2616,23 @@
       <c r="E55" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1704,8 +2648,23 @@
       <c r="E56" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" t="s">
+        <v>127</v>
+      </c>
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -1721,8 +2680,23 @@
       <c r="E57" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" t="s">
+        <v>127</v>
+      </c>
+      <c r="I57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -1738,8 +2712,23 @@
       <c r="E58" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" t="s">
+        <v>127</v>
+      </c>
+      <c r="J58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1755,8 +2744,23 @@
       <c r="E59" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" t="s">
+        <v>127</v>
+      </c>
+      <c r="H59" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" t="s">
+        <v>127</v>
+      </c>
+      <c r="J59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1772,8 +2776,23 @@
       <c r="E60" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" t="s">
+        <v>127</v>
+      </c>
+      <c r="H60" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" t="s">
+        <v>127</v>
+      </c>
+      <c r="J60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -1789,8 +2808,23 @@
       <c r="E61" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" t="s">
+        <v>127</v>
+      </c>
+      <c r="J61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -1806,8 +2840,23 @@
       <c r="E62" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" t="s">
+        <v>127</v>
+      </c>
+      <c r="I62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -1823,8 +2872,23 @@
       <c r="E63" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" t="s">
+        <v>127</v>
+      </c>
+      <c r="I63" t="s">
+        <v>127</v>
+      </c>
+      <c r="J63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -1840,8 +2904,23 @@
       <c r="E64" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -1857,8 +2936,23 @@
       <c r="E65" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" t="s">
+        <v>129</v>
+      </c>
+      <c r="J65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -1874,8 +2968,23 @@
       <c r="E66" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" t="s">
+        <v>131</v>
+      </c>
+      <c r="J66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -1891,8 +3000,23 @@
       <c r="E67" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" t="s">
+        <v>130</v>
+      </c>
+      <c r="I67" t="s">
+        <v>131</v>
+      </c>
+      <c r="J67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -1908,8 +3032,23 @@
       <c r="E68" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" t="s">
+        <v>130</v>
+      </c>
+      <c r="I68" t="s">
+        <v>131</v>
+      </c>
+      <c r="J68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -1925,8 +3064,23 @@
       <c r="E69" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" t="s">
+        <v>123</v>
+      </c>
+      <c r="J69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -1942,8 +3096,23 @@
       <c r="E70" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" t="s">
+        <v>123</v>
+      </c>
+      <c r="H70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -1959,8 +3128,23 @@
       <c r="E71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>122</v>
+      </c>
+      <c r="G71" t="s">
+        <v>123</v>
+      </c>
+      <c r="H71" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" t="s">
+        <v>123</v>
+      </c>
+      <c r="J71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -1976,8 +3160,23 @@
       <c r="E72" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>124</v>
+      </c>
+      <c r="G72" t="s">
+        <v>125</v>
+      </c>
+      <c r="H72" t="s">
+        <v>132</v>
+      </c>
+      <c r="I72" t="s">
+        <v>67</v>
+      </c>
+      <c r="J72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -1993,8 +3192,23 @@
       <c r="E73" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73" t="s">
+        <v>132</v>
+      </c>
+      <c r="I73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -2010,8 +3224,23 @@
       <c r="E74" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" t="s">
+        <v>132</v>
+      </c>
+      <c r="I74" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -2027,8 +3256,23 @@
       <c r="E75" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" t="s">
+        <v>67</v>
+      </c>
+      <c r="J75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -2044,8 +3288,23 @@
       <c r="E76" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" t="s">
+        <v>132</v>
+      </c>
+      <c r="I76" t="s">
+        <v>67</v>
+      </c>
+      <c r="J76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -2061,8 +3320,23 @@
       <c r="E77" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" t="s">
+        <v>132</v>
+      </c>
+      <c r="I77" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -2078,8 +3352,23 @@
       <c r="E78" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -2095,8 +3384,23 @@
       <c r="E79" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" t="s">
+        <v>133</v>
+      </c>
+      <c r="I79" t="s">
+        <v>67</v>
+      </c>
+      <c r="J79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -2112,8 +3416,23 @@
       <c r="E80" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" t="s">
+        <v>125</v>
+      </c>
+      <c r="H80" t="s">
+        <v>132</v>
+      </c>
+      <c r="I80" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -2129,8 +3448,23 @@
       <c r="E81" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H81" t="s">
+        <v>132</v>
+      </c>
+      <c r="I81" t="s">
+        <v>67</v>
+      </c>
+      <c r="J81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -2146,8 +3480,23 @@
       <c r="E82" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>124</v>
+      </c>
+      <c r="G82" t="s">
+        <v>125</v>
+      </c>
+      <c r="H82" t="s">
+        <v>132</v>
+      </c>
+      <c r="I82" t="s">
+        <v>67</v>
+      </c>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -2163,8 +3512,23 @@
       <c r="E83" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" t="s">
+        <v>125</v>
+      </c>
+      <c r="H83" t="s">
+        <v>132</v>
+      </c>
+      <c r="I83" t="s">
+        <v>67</v>
+      </c>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -2180,8 +3544,23 @@
       <c r="E84" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>124</v>
+      </c>
+      <c r="G84" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" t="s">
+        <v>132</v>
+      </c>
+      <c r="I84" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -2197,8 +3576,23 @@
       <c r="E85" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" t="s">
+        <v>125</v>
+      </c>
+      <c r="H85" t="s">
+        <v>132</v>
+      </c>
+      <c r="I85" t="s">
+        <v>67</v>
+      </c>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -2214,8 +3608,23 @@
       <c r="E86" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" t="s">
+        <v>133</v>
+      </c>
+      <c r="I86" t="s">
+        <v>67</v>
+      </c>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -2231,8 +3640,23 @@
       <c r="E87" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" t="s">
+        <v>133</v>
+      </c>
+      <c r="I87" t="s">
+        <v>67</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +3672,23 @@
       <c r="E88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>124</v>
+      </c>
+      <c r="G88" t="s">
+        <v>125</v>
+      </c>
+      <c r="H88" t="s">
+        <v>132</v>
+      </c>
+      <c r="I88" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -2265,8 +3704,23 @@
       <c r="E89" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>124</v>
+      </c>
+      <c r="G89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H89" t="s">
+        <v>132</v>
+      </c>
+      <c r="I89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -2282,8 +3736,23 @@
       <c r="E90" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>124</v>
+      </c>
+      <c r="G90" t="s">
+        <v>125</v>
+      </c>
+      <c r="H90" t="s">
+        <v>132</v>
+      </c>
+      <c r="I90" t="s">
+        <v>67</v>
+      </c>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -2299,8 +3768,23 @@
       <c r="E91" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>124</v>
+      </c>
+      <c r="G91" t="s">
+        <v>125</v>
+      </c>
+      <c r="H91" t="s">
+        <v>132</v>
+      </c>
+      <c r="I91" t="s">
+        <v>67</v>
+      </c>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -2316,8 +3800,23 @@
       <c r="E92" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>124</v>
+      </c>
+      <c r="G92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H92" t="s">
+        <v>132</v>
+      </c>
+      <c r="I92" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -2333,8 +3832,23 @@
       <c r="E93" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>124</v>
+      </c>
+      <c r="G93" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" t="s">
+        <v>132</v>
+      </c>
+      <c r="I93" t="s">
+        <v>67</v>
+      </c>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -2350,8 +3864,23 @@
       <c r="E94" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>124</v>
+      </c>
+      <c r="G94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H94" t="s">
+        <v>132</v>
+      </c>
+      <c r="I94" t="s">
+        <v>67</v>
+      </c>
+      <c r="J94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>52</v>
       </c>
@@ -2367,8 +3896,23 @@
       <c r="E95" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>124</v>
+      </c>
+      <c r="G95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95" t="s">
+        <v>67</v>
+      </c>
+      <c r="J95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -2384,8 +3928,23 @@
       <c r="E96" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>124</v>
+      </c>
+      <c r="G96" t="s">
+        <v>125</v>
+      </c>
+      <c r="H96" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96" t="s">
+        <v>67</v>
+      </c>
+      <c r="J96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -2401,8 +3960,23 @@
       <c r="E97" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" t="s">
+        <v>125</v>
+      </c>
+      <c r="H97" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" t="s">
+        <v>67</v>
+      </c>
+      <c r="J97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -2418,8 +3992,23 @@
       <c r="E98" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>124</v>
+      </c>
+      <c r="G98" t="s">
+        <v>125</v>
+      </c>
+      <c r="H98" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" t="s">
+        <v>67</v>
+      </c>
+      <c r="J98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -2435,8 +4024,24 @@
       <c r="E99" t="s">
         <v>113</v>
       </c>
+      <c r="F99" t="s">
+        <v>122</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
+      <c r="H99" t="s">
+        <v>123</v>
+      </c>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+      <c r="J99" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB71896-8D5C-2E40-AA47-414B899312F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826031DB-6D6B-714F-AE5E-BE403A0CD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="146">
   <si>
     <t>DOI</t>
   </si>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>Radiant flux</t>
-  </si>
-  <si>
-    <t>Visible</t>
   </si>
   <si>
     <t>Fraction</t>
@@ -863,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1148,7 @@
         <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
         <v>136</v>
@@ -1183,7 +1180,7 @@
         <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
         <v>136</v>
@@ -1212,13 +1209,13 @@
         <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
         <v>121</v>
@@ -1314,7 +1311,7 @@
         <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
         <v>121</v>
@@ -1346,7 +1343,7 @@
         <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
         <v>121</v>
@@ -2495,7 +2492,7 @@
         <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I51" t="s">
         <v>136</v>
@@ -2527,7 +2524,7 @@
         <v>134</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I52" t="s">
         <v>136</v>

--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826031DB-6D6B-714F-AE5E-BE403A0CD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4734D14E-6AA7-754C-8E1F-43AB702CBD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,10 +454,10 @@
     <t>Fraction</t>
   </si>
   <si>
-    <t>Radiant efficiency</t>
-  </si>
-  <si>
     <t>Electrochemiluminescence</t>
+  </si>
+  <si>
+    <t>Radiance</t>
   </si>
 </sst>
 </file>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1311,7 @@
         <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
         <v>121</v>
@@ -1343,7 +1343,7 @@
         <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
         <v>121</v>
@@ -2492,7 +2492,7 @@
         <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I51" t="s">
         <v>136</v>
@@ -2524,7 +2524,7 @@
         <v>134</v>
       </c>
       <c r="H52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I52" t="s">
         <v>136</v>

--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4734D14E-6AA7-754C-8E1F-43AB702CBD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227B2CFD-1FEA-3F4C-9E65-6956646AA6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="11060" windowWidth="37620" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="245">
   <si>
     <t>DOI</t>
   </si>
@@ -458,6 +458,303 @@
   </si>
   <si>
     <t>Radiance</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01558-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01558-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01585-8_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01585-8_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01604-8_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01618-2_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01649-9_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01650-2_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-022-01650-2_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01657-3_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01678-y_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01678-y_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01679-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01679-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01684-0_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01684-0_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01715-w_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01728-5_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01748-1_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01758-z_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01758-z_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01758-z_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01759-y_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01759-y_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01759-y_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01763-2_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01763-2_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01766-z_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01774-z_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01774-z_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01774-z_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01793-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01793-w_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01821-9_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01840-6_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01840-6_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01840-6_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01840-6_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01857-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01857-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01857-x_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig16</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig17</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig18</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig19</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig20</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig21</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig22</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig23</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01906-5_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01931-4_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01931-4_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01931-4_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01931-4_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41587-023-01931-4_log_fig5</t>
   </si>
 </sst>
 </file>
@@ -858,198 +1155,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>123</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>122</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>123</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
         <v>139</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>131</v>
       </c>
-      <c r="J4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
-        <v>124</v>
-      </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" t="s">
         <v>139</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>131</v>
       </c>
-      <c r="J5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>122</v>
-      </c>
-      <c r="G6" t="s">
-        <v>123</v>
       </c>
       <c r="H6" t="s">
         <v>123</v>
@@ -1058,30 +1370,33 @@
         <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>122</v>
-      </c>
-      <c r="G7" t="s">
-        <v>123</v>
       </c>
       <c r="H7" t="s">
         <v>123</v>
@@ -1090,31 +1405,34 @@
         <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>122</v>
       </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
       <c r="H8" t="s">
         <v>127</v>
       </c>
@@ -1122,94 +1440,103 @@
         <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>122</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>134</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>135</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>136</v>
       </c>
-      <c r="J9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>134</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>135</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>136</v>
       </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>122</v>
-      </c>
-      <c r="G11" t="s">
-        <v>143</v>
       </c>
       <c r="H11" t="s">
         <v>143</v>
@@ -1218,30 +1545,33 @@
         <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>122</v>
-      </c>
-      <c r="G12" t="s">
-        <v>123</v>
       </c>
       <c r="H12" t="s">
         <v>123</v>
@@ -1250,30 +1580,33 @@
         <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>122</v>
-      </c>
-      <c r="G13" t="s">
-        <v>123</v>
       </c>
       <c r="H13" t="s">
         <v>123</v>
@@ -1282,639 +1615,699 @@
         <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
-        <v>124</v>
-      </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
         <v>141</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>145</v>
       </c>
-      <c r="J14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="F15" t="s">
-        <v>124</v>
-      </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
         <v>141</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>145</v>
       </c>
-      <c r="J15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
-        <v>124</v>
-      </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
         <v>138</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>129</v>
       </c>
-      <c r="J16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="F17" t="s">
-        <v>124</v>
-      </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
         <v>138</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>129</v>
       </c>
-      <c r="J17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" t="s">
-        <v>124</v>
-      </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
         <v>137</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>129</v>
       </c>
-      <c r="J18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s">
-        <v>124</v>
-      </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
         <v>137</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>129</v>
       </c>
-      <c r="J19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>69</v>
       </c>
-      <c r="F20" t="s">
-        <v>124</v>
-      </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" t="s">
         <v>137</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>129</v>
       </c>
-      <c r="J20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>70</v>
       </c>
-      <c r="F21" t="s">
-        <v>124</v>
-      </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" t="s">
         <v>137</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>129</v>
       </c>
-      <c r="J21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>71</v>
       </c>
-      <c r="F22" t="s">
-        <v>124</v>
-      </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
         <v>137</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>129</v>
       </c>
-      <c r="J22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>72</v>
       </c>
-      <c r="F23" t="s">
-        <v>124</v>
-      </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" t="s">
         <v>137</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>129</v>
       </c>
-      <c r="J23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
         <v>126</v>
       </c>
-      <c r="I24" t="s">
-        <v>67</v>
-      </c>
       <c r="J24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
         <v>126</v>
       </c>
-      <c r="I25" t="s">
-        <v>67</v>
-      </c>
       <c r="J25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
         <v>126</v>
       </c>
-      <c r="I26" t="s">
-        <v>67</v>
-      </c>
       <c r="J26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
         <v>126</v>
       </c>
-      <c r="I27" t="s">
-        <v>67</v>
-      </c>
       <c r="J27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" t="s">
         <v>126</v>
       </c>
-      <c r="I28" t="s">
-        <v>67</v>
-      </c>
       <c r="J28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
         <v>126</v>
       </c>
-      <c r="I29" t="s">
-        <v>67</v>
-      </c>
       <c r="J29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" t="s">
         <v>126</v>
       </c>
-      <c r="I30" t="s">
-        <v>67</v>
-      </c>
       <c r="J30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" t="s">
         <v>126</v>
       </c>
-      <c r="I31" t="s">
-        <v>67</v>
-      </c>
       <c r="J31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>73</v>
       </c>
-      <c r="F32" t="s">
-        <v>124</v>
-      </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
         <v>73</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>140</v>
       </c>
-      <c r="J32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>74</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>122</v>
       </c>
-      <c r="G33" t="s">
-        <v>127</v>
-      </c>
       <c r="H33" t="s">
         <v>127</v>
       </c>
@@ -1922,31 +2315,34 @@
         <v>127</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>74</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>122</v>
       </c>
-      <c r="G34" t="s">
-        <v>127</v>
-      </c>
       <c r="H34" t="s">
         <v>127</v>
       </c>
@@ -1954,31 +2350,34 @@
         <v>127</v>
       </c>
       <c r="J34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>24</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>74</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>122</v>
       </c>
-      <c r="G35" t="s">
-        <v>127</v>
-      </c>
       <c r="H35" t="s">
         <v>127</v>
       </c>
@@ -1986,31 +2385,34 @@
         <v>127</v>
       </c>
       <c r="J35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>74</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>122</v>
       </c>
-      <c r="G36" t="s">
-        <v>127</v>
-      </c>
       <c r="H36" t="s">
         <v>127</v>
       </c>
@@ -2018,31 +2420,34 @@
         <v>127</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>74</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>122</v>
       </c>
-      <c r="G37" t="s">
-        <v>127</v>
-      </c>
       <c r="H37" t="s">
         <v>127</v>
       </c>
@@ -2050,30 +2455,33 @@
         <v>127</v>
       </c>
       <c r="J37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>27</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>122</v>
-      </c>
-      <c r="G38" t="s">
-        <v>123</v>
       </c>
       <c r="H38" t="s">
         <v>123</v>
@@ -2082,30 +2490,33 @@
         <v>123</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>28</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>122</v>
-      </c>
-      <c r="G39" t="s">
-        <v>123</v>
       </c>
       <c r="H39" t="s">
         <v>123</v>
@@ -2114,30 +2525,33 @@
         <v>123</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>29</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>122</v>
-      </c>
-      <c r="G40" t="s">
-        <v>123</v>
       </c>
       <c r="H40" t="s">
         <v>123</v>
@@ -2146,30 +2560,33 @@
         <v>123</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>122</v>
-      </c>
-      <c r="G41" t="s">
-        <v>123</v>
       </c>
       <c r="H41" t="s">
         <v>123</v>
@@ -2178,31 +2595,34 @@
         <v>123</v>
       </c>
       <c r="J41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>76</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>122</v>
       </c>
-      <c r="G42" t="s">
-        <v>127</v>
-      </c>
       <c r="H42" t="s">
         <v>127</v>
       </c>
@@ -2210,30 +2630,33 @@
         <v>127</v>
       </c>
       <c r="J42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>77</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>122</v>
-      </c>
-      <c r="G43" t="s">
-        <v>123</v>
       </c>
       <c r="H43" t="s">
         <v>123</v>
@@ -2242,31 +2665,34 @@
         <v>123</v>
       </c>
       <c r="J43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>78</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>122</v>
       </c>
-      <c r="G44" t="s">
-        <v>127</v>
-      </c>
       <c r="H44" t="s">
         <v>127</v>
       </c>
@@ -2274,383 +2700,419 @@
         <v>127</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>79</v>
       </c>
-      <c r="F45" t="s">
-        <v>124</v>
-      </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I45" t="s">
         <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
         <v>34</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>115</v>
       </c>
-      <c r="F46" t="s">
-        <v>124</v>
-      </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I46" t="s">
         <v>67</v>
       </c>
       <c r="J46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>24</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>115</v>
       </c>
-      <c r="F47" t="s">
-        <v>124</v>
-      </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I47" t="s">
         <v>67</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>80</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>122</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>134</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>135</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>136</v>
       </c>
-      <c r="J48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="K48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>81</v>
       </c>
-      <c r="F49" t="s">
-        <v>124</v>
-      </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" t="s">
         <v>132</v>
       </c>
-      <c r="I49" t="s">
-        <v>67</v>
-      </c>
       <c r="J49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>82</v>
       </c>
-      <c r="F50" t="s">
-        <v>124</v>
-      </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" t="s">
         <v>132</v>
       </c>
-      <c r="I50" t="s">
-        <v>67</v>
-      </c>
       <c r="J50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>20</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>83</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>122</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>134</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>144</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>136</v>
       </c>
-      <c r="J51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="K51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>21</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>83</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>122</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>134</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>144</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>136</v>
       </c>
-      <c r="J52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="K52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
         <v>37</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>22</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>84</v>
       </c>
-      <c r="F53" t="s">
-        <v>124</v>
-      </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H53" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" t="s">
         <v>141</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>142</v>
       </c>
-      <c r="J53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="K53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s">
         <v>38</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>85</v>
       </c>
-      <c r="F54" t="s">
-        <v>124</v>
-      </c>
       <c r="G54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H54" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I54" t="s">
         <v>67</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
         <v>38</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>87</v>
       </c>
-      <c r="F55" t="s">
-        <v>124</v>
-      </c>
       <c r="G55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H55" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I55" t="s">
         <v>67</v>
       </c>
       <c r="J55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>86</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>122</v>
       </c>
-      <c r="G56" t="s">
-        <v>127</v>
-      </c>
       <c r="H56" t="s">
         <v>127</v>
       </c>
@@ -2658,31 +3120,34 @@
         <v>127</v>
       </c>
       <c r="J56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="K56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>86</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>122</v>
       </c>
-      <c r="G57" t="s">
-        <v>127</v>
-      </c>
       <c r="H57" t="s">
         <v>127</v>
       </c>
@@ -2690,31 +3155,34 @@
         <v>127</v>
       </c>
       <c r="J57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>24</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>86</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>122</v>
       </c>
-      <c r="G58" t="s">
-        <v>127</v>
-      </c>
       <c r="H58" t="s">
         <v>127</v>
       </c>
@@ -2722,31 +3190,34 @@
         <v>127</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>25</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>86</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>122</v>
       </c>
-      <c r="G59" t="s">
-        <v>127</v>
-      </c>
       <c r="H59" t="s">
         <v>127</v>
       </c>
@@ -2754,31 +3225,34 @@
         <v>127</v>
       </c>
       <c r="J59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>26</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>86</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>122</v>
       </c>
-      <c r="G60" t="s">
-        <v>127</v>
-      </c>
       <c r="H60" t="s">
         <v>127</v>
       </c>
@@ -2786,31 +3260,34 @@
         <v>127</v>
       </c>
       <c r="J60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="K60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>27</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>86</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>122</v>
       </c>
-      <c r="G61" t="s">
-        <v>127</v>
-      </c>
       <c r="H61" t="s">
         <v>127</v>
       </c>
@@ -2818,31 +3295,34 @@
         <v>127</v>
       </c>
       <c r="J61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" t="s">
         <v>39</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>28</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>86</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>122</v>
       </c>
-      <c r="G62" t="s">
-        <v>127</v>
-      </c>
       <c r="H62" t="s">
         <v>127</v>
       </c>
@@ -2850,31 +3330,34 @@
         <v>127</v>
       </c>
       <c r="J62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" t="s">
         <v>39</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>29</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>86</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>122</v>
       </c>
-      <c r="G63" t="s">
-        <v>127</v>
-      </c>
       <c r="H63" t="s">
         <v>127</v>
       </c>
@@ -2882,31 +3365,34 @@
         <v>127</v>
       </c>
       <c r="J63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" t="s">
         <v>39</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>30</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>86</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>122</v>
       </c>
-      <c r="G64" t="s">
-        <v>127</v>
-      </c>
       <c r="H64" t="s">
         <v>127</v>
       </c>
@@ -2914,158 +3400,173 @@
         <v>127</v>
       </c>
       <c r="J64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="K64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
         <v>40</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>88</v>
       </c>
-      <c r="F65" t="s">
-        <v>124</v>
-      </c>
       <c r="G65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H65" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65" t="s">
         <v>128</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>129</v>
       </c>
-      <c r="J65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="K65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>89</v>
       </c>
-      <c r="F66" t="s">
-        <v>124</v>
-      </c>
       <c r="G66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H66" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" t="s">
         <v>130</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>131</v>
       </c>
-      <c r="J66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="K66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" t="s">
         <v>40</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>24</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>89</v>
       </c>
-      <c r="F67" t="s">
-        <v>124</v>
-      </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s">
         <v>130</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>131</v>
       </c>
-      <c r="J67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="K67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" t="s">
         <v>40</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>25</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>89</v>
       </c>
-      <c r="F68" t="s">
-        <v>124</v>
-      </c>
       <c r="G68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" t="s">
         <v>130</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>131</v>
       </c>
-      <c r="J68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="K68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" t="s">
         <v>41</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>90</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>122</v>
-      </c>
-      <c r="G69" t="s">
-        <v>123</v>
       </c>
       <c r="H69" t="s">
         <v>123</v>
@@ -3074,30 +3575,33 @@
         <v>123</v>
       </c>
       <c r="J69" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="K69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
         <v>41</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>8</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>91</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>122</v>
-      </c>
-      <c r="G70" t="s">
-        <v>123</v>
       </c>
       <c r="H70" t="s">
         <v>123</v>
@@ -3106,30 +3610,33 @@
         <v>123</v>
       </c>
       <c r="J70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="K70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" t="s">
         <v>41</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>24</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>91</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>122</v>
-      </c>
-      <c r="G71" t="s">
-        <v>123</v>
       </c>
       <c r="H71" t="s">
         <v>123</v>
@@ -3138,894 +3645,978 @@
         <v>123</v>
       </c>
       <c r="J71" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="K71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" t="s">
         <v>42</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>92</v>
       </c>
-      <c r="F72" t="s">
-        <v>124</v>
-      </c>
       <c r="G72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H72" t="s">
+        <v>125</v>
+      </c>
+      <c r="I72" t="s">
         <v>132</v>
       </c>
-      <c r="I72" t="s">
-        <v>67</v>
-      </c>
       <c r="J72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
         <v>42</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>19</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
         <v>101</v>
       </c>
-      <c r="F73" t="s">
-        <v>124</v>
-      </c>
       <c r="G73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H73" t="s">
+        <v>125</v>
+      </c>
+      <c r="I73" t="s">
         <v>132</v>
       </c>
-      <c r="I73" t="s">
-        <v>67</v>
-      </c>
       <c r="J73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" t="s">
         <v>42</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>20</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
       <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
         <v>102</v>
       </c>
-      <c r="F74" t="s">
-        <v>124</v>
-      </c>
       <c r="G74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I74" t="s">
         <v>132</v>
       </c>
-      <c r="I74" t="s">
-        <v>67</v>
-      </c>
       <c r="J74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s">
         <v>42</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>21</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>103</v>
       </c>
-      <c r="F75" t="s">
-        <v>124</v>
-      </c>
       <c r="G75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H75" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" t="s">
         <v>132</v>
       </c>
-      <c r="I75" t="s">
-        <v>67</v>
-      </c>
       <c r="J75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="K75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
         <v>42</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>22</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
       <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>104</v>
       </c>
-      <c r="F76" t="s">
-        <v>124</v>
-      </c>
       <c r="G76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H76" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" t="s">
         <v>132</v>
       </c>
-      <c r="I76" t="s">
-        <v>67</v>
-      </c>
       <c r="J76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" t="s">
         <v>42</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>23</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>105</v>
       </c>
-      <c r="F77" t="s">
-        <v>124</v>
-      </c>
       <c r="G77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H77" t="s">
+        <v>125</v>
+      </c>
+      <c r="I77" t="s">
         <v>132</v>
       </c>
-      <c r="I77" t="s">
-        <v>67</v>
-      </c>
       <c r="J77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="K77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
         <v>42</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>43</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
         <v>106</v>
       </c>
-      <c r="F78" t="s">
-        <v>124</v>
-      </c>
       <c r="G78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H78" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" t="s">
         <v>132</v>
       </c>
-      <c r="I78" t="s">
-        <v>67</v>
-      </c>
       <c r="J78" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="K78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" t="s">
         <v>42</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
       <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>44</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
       <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
         <v>107</v>
       </c>
-      <c r="F79" t="s">
-        <v>124</v>
-      </c>
       <c r="G79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" t="s">
         <v>133</v>
       </c>
-      <c r="I79" t="s">
-        <v>67</v>
-      </c>
       <c r="J79" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
         <v>42</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
       <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>45</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
       <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
         <v>108</v>
       </c>
-      <c r="F80" t="s">
-        <v>124</v>
-      </c>
       <c r="G80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H80" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" t="s">
         <v>132</v>
       </c>
-      <c r="I80" t="s">
-        <v>67</v>
-      </c>
       <c r="J80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="K80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" t="s">
         <v>42</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
         <v>46</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
       <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
         <v>109</v>
       </c>
-      <c r="F81" t="s">
-        <v>124</v>
-      </c>
       <c r="G81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H81" t="s">
+        <v>125</v>
+      </c>
+      <c r="I81" t="s">
         <v>132</v>
       </c>
-      <c r="I81" t="s">
-        <v>67</v>
-      </c>
       <c r="J81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="K81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
         <v>42</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
       <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
         <v>47</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
       <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
         <v>110</v>
       </c>
-      <c r="F82" t="s">
-        <v>124</v>
-      </c>
       <c r="G82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H82" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" t="s">
         <v>132</v>
       </c>
-      <c r="I82" t="s">
-        <v>67</v>
-      </c>
       <c r="J82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="K82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" t="s">
         <v>42</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
       <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
         <v>8</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
       <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
         <v>95</v>
       </c>
-      <c r="F83" t="s">
-        <v>124</v>
-      </c>
       <c r="G83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H83" t="s">
+        <v>125</v>
+      </c>
+      <c r="I83" t="s">
         <v>132</v>
       </c>
-      <c r="I83" t="s">
-        <v>67</v>
-      </c>
       <c r="J83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+        <v>67</v>
+      </c>
+      <c r="K83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" t="s">
         <v>42</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
         <v>48</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
       <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
         <v>111</v>
       </c>
-      <c r="F84" t="s">
-        <v>124</v>
-      </c>
       <c r="G84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H84" t="s">
+        <v>125</v>
+      </c>
+      <c r="I84" t="s">
         <v>132</v>
       </c>
-      <c r="I84" t="s">
-        <v>67</v>
-      </c>
       <c r="J84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+        <v>67</v>
+      </c>
+      <c r="K84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" t="s">
         <v>42</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
       <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>49</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
       <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
         <v>112</v>
       </c>
-      <c r="F85" t="s">
-        <v>124</v>
-      </c>
       <c r="G85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H85" t="s">
+        <v>125</v>
+      </c>
+      <c r="I85" t="s">
         <v>132</v>
       </c>
-      <c r="I85" t="s">
-        <v>67</v>
-      </c>
       <c r="J85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+        <v>67</v>
+      </c>
+      <c r="K85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
         <v>42</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>50</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
       <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
         <v>107</v>
       </c>
-      <c r="F86" t="s">
-        <v>124</v>
-      </c>
       <c r="G86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H86" t="s">
+        <v>125</v>
+      </c>
+      <c r="I86" t="s">
         <v>133</v>
       </c>
-      <c r="I86" t="s">
-        <v>67</v>
-      </c>
       <c r="J86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="K86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" t="s">
         <v>42</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
       <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
         <v>51</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
       <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
         <v>107</v>
       </c>
-      <c r="F87" t="s">
-        <v>124</v>
-      </c>
       <c r="G87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H87" t="s">
+        <v>125</v>
+      </c>
+      <c r="I87" t="s">
         <v>133</v>
       </c>
-      <c r="I87" t="s">
-        <v>67</v>
-      </c>
       <c r="J87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B88" t="s">
         <v>42</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
       <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
         <v>24</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
       <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
         <v>93</v>
       </c>
-      <c r="F88" t="s">
-        <v>124</v>
-      </c>
       <c r="G88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H88" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88" t="s">
         <v>132</v>
       </c>
-      <c r="I88" t="s">
-        <v>67</v>
-      </c>
       <c r="J88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="K88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" t="s">
         <v>42</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
       <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
         <v>25</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
       <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
         <v>94</v>
       </c>
-      <c r="F89" t="s">
-        <v>124</v>
-      </c>
       <c r="G89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H89" t="s">
+        <v>125</v>
+      </c>
+      <c r="I89" t="s">
         <v>132</v>
       </c>
-      <c r="I89" t="s">
-        <v>67</v>
-      </c>
       <c r="J89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+      <c r="K89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" t="s">
         <v>42</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
       <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
         <v>26</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
       <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
         <v>96</v>
       </c>
-      <c r="F90" t="s">
-        <v>124</v>
-      </c>
       <c r="G90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H90" t="s">
+        <v>125</v>
+      </c>
+      <c r="I90" t="s">
         <v>132</v>
       </c>
-      <c r="I90" t="s">
-        <v>67</v>
-      </c>
       <c r="J90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+        <v>67</v>
+      </c>
+      <c r="K90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" t="s">
         <v>42</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
       <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>27</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
       <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
         <v>97</v>
       </c>
-      <c r="F91" t="s">
-        <v>124</v>
-      </c>
       <c r="G91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H91" t="s">
+        <v>125</v>
+      </c>
+      <c r="I91" t="s">
         <v>132</v>
       </c>
-      <c r="I91" t="s">
-        <v>67</v>
-      </c>
       <c r="J91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+        <v>67</v>
+      </c>
+      <c r="K91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" t="s">
         <v>42</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
       <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
         <v>28</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
       <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
         <v>98</v>
       </c>
-      <c r="F92" t="s">
-        <v>124</v>
-      </c>
       <c r="G92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H92" t="s">
+        <v>125</v>
+      </c>
+      <c r="I92" t="s">
         <v>132</v>
       </c>
-      <c r="I92" t="s">
-        <v>67</v>
-      </c>
       <c r="J92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+        <v>67</v>
+      </c>
+      <c r="K92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" t="s">
         <v>42</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
         <v>29</v>
       </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
       <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
         <v>99</v>
       </c>
-      <c r="F93" t="s">
-        <v>124</v>
-      </c>
       <c r="G93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H93" t="s">
+        <v>125</v>
+      </c>
+      <c r="I93" t="s">
         <v>132</v>
       </c>
-      <c r="I93" t="s">
-        <v>67</v>
-      </c>
       <c r="J93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+        <v>67</v>
+      </c>
+      <c r="K93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B94" t="s">
         <v>42</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
       <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
         <v>30</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
       <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
         <v>100</v>
       </c>
-      <c r="F94" t="s">
-        <v>124</v>
-      </c>
       <c r="G94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H94" t="s">
+        <v>125</v>
+      </c>
+      <c r="I94" t="s">
         <v>132</v>
       </c>
-      <c r="I94" t="s">
-        <v>67</v>
-      </c>
       <c r="J94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+      <c r="K94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" t="s">
         <v>52</v>
       </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
       <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
         <v>6</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
       <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
         <v>114</v>
       </c>
-      <c r="F95" t="s">
-        <v>124</v>
-      </c>
       <c r="G95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H95" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I95" t="s">
         <v>67</v>
       </c>
       <c r="J95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+      <c r="K95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96" t="s">
         <v>52</v>
       </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
       <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
         <v>8</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
       <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
         <v>114</v>
       </c>
-      <c r="F96" t="s">
-        <v>124</v>
-      </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H96" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I96" t="s">
         <v>67</v>
       </c>
       <c r="J96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+        <v>67</v>
+      </c>
+      <c r="K96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" t="s">
         <v>52</v>
       </c>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
       <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>24</v>
       </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
       <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
         <v>114</v>
       </c>
-      <c r="F97" t="s">
-        <v>124</v>
-      </c>
       <c r="G97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H97" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I97" t="s">
         <v>67</v>
       </c>
       <c r="J97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+        <v>67</v>
+      </c>
+      <c r="K97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" t="s">
         <v>52</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
       <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
         <v>25</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
       <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
         <v>114</v>
       </c>
-      <c r="F98" t="s">
-        <v>124</v>
-      </c>
       <c r="G98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H98" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I98" t="s">
         <v>67</v>
       </c>
       <c r="J98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99" t="s">
         <v>52</v>
       </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
       <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
         <v>26</v>
       </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
       <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
         <v>113</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>122</v>
-      </c>
-      <c r="G99" t="s">
-        <v>123</v>
       </c>
       <c r="H99" t="s">
         <v>123</v>
@@ -4034,6 +4625,9 @@
         <v>123</v>
       </c>
       <c r="J99" t="s">
+        <v>123</v>
+      </c>
+      <c r="K99" t="s">
         <v>121</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227B2CFD-1FEA-3F4C-9E65-6956646AA6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC6D7B-9717-A149-A389-34CF0EE486CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="244">
   <si>
     <t>DOI</t>
   </si>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>Radiant flux</t>
-  </si>
-  <si>
-    <t>Fraction</t>
   </si>
   <si>
     <t>Electrochemiluminescence</t>
@@ -1157,18 +1154,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1203,7 +1202,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1238,7 +1237,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1273,7 +1272,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1308,7 +1307,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1343,7 +1342,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1378,7 +1377,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1413,7 +1412,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1448,7 +1447,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1483,7 +1482,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1518,7 +1517,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1539,13 +1538,13 @@
         <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
         <v>121</v>
@@ -1553,7 +1552,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1588,7 +1587,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1623,7 +1622,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1650,7 +1649,7 @@
         <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
         <v>121</v>
@@ -1658,7 +1657,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1685,7 +1684,7 @@
         <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
         <v>121</v>
@@ -1693,7 +1692,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1728,7 +1727,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1763,7 +1762,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1798,7 +1797,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1833,7 +1832,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1868,7 +1867,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1903,7 +1902,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1938,7 +1937,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1973,7 +1972,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -2008,7 +2007,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -2043,7 +2042,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -2078,7 +2077,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2113,7 +2112,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2148,7 +2147,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2183,7 +2182,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -2218,7 +2217,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2253,7 +2252,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2277,7 +2276,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="J32" t="s">
         <v>140</v>
@@ -2288,7 +2287,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2323,7 +2322,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2358,7 +2357,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2393,7 +2392,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2428,7 +2427,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2463,7 +2462,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2498,7 +2497,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2533,7 +2532,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2568,7 +2567,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2603,7 +2602,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2638,7 +2637,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2673,7 +2672,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -2708,7 +2707,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -2743,7 +2742,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -2778,7 +2777,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -2813,7 +2812,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -2848,7 +2847,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2883,7 +2882,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2918,7 +2917,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2942,7 +2941,7 @@
         <v>134</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J51" t="s">
         <v>136</v>
@@ -2953,7 +2952,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2977,7 +2976,7 @@
         <v>134</v>
       </c>
       <c r="I52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J52" t="s">
         <v>136</v>
@@ -2988,7 +2987,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -3023,7 +3022,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -3058,7 +3057,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -3093,7 +3092,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3128,7 +3127,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3163,7 +3162,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3198,7 +3197,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3233,7 +3232,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3268,7 +3267,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3303,7 +3302,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -3338,7 +3337,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
@@ -3373,7 +3372,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -3408,7 +3407,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
         <v>40</v>
@@ -3443,7 +3442,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
@@ -3478,7 +3477,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
@@ -3513,7 +3512,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -3548,7 +3547,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -3583,7 +3582,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3618,7 +3617,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3653,7 +3652,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -3688,7 +3687,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -3723,7 +3722,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
@@ -3758,7 +3757,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -3793,7 +3792,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
         <v>42</v>
@@ -3828,7 +3827,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B77" t="s">
         <v>42</v>
@@ -3863,7 +3862,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3898,7 +3897,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3933,7 +3932,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3968,7 +3967,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -4003,7 +4002,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -4038,7 +4037,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -4073,7 +4072,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -4108,7 +4107,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -4143,7 +4142,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -4178,7 +4177,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -4213,7 +4212,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -4248,7 +4247,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -4283,7 +4282,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -4318,7 +4317,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -4353,7 +4352,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -4388,7 +4387,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
@@ -4423,7 +4422,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -4458,7 +4457,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
         <v>52</v>
@@ -4493,7 +4492,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -4528,7 +4527,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
@@ -4563,7 +4562,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -4598,7 +4597,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B99" t="s">
         <v>52</v>

--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC6D7B-9717-A149-A389-34CF0EE486CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F67150-4560-0648-B910-6ED2068B4FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="245">
   <si>
     <t>DOI</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Radiant flux</t>
   </si>
   <si>
-    <t>Electrochemiluminescence</t>
-  </si>
-  <si>
     <t>Radiance</t>
   </si>
   <si>
@@ -752,6 +749,12 @@
   </si>
   <si>
     <t>10.1038:s41587-023-01931-4_log_fig5</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="G38" zoomScale="200" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1272,7 +1275,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1307,7 +1310,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1342,7 +1345,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1471,10 +1474,10 @@
         <v>134</v>
       </c>
       <c r="I9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" t="s">
         <v>135</v>
-      </c>
-      <c r="J9" t="s">
-        <v>136</v>
       </c>
       <c r="K9" t="s">
         <v>121</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1506,10 +1509,10 @@
         <v>134</v>
       </c>
       <c r="I10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" t="s">
         <v>135</v>
-      </c>
-      <c r="J10" t="s">
-        <v>136</v>
       </c>
       <c r="K10" t="s">
         <v>121</v>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1552,7 +1555,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1622,7 +1625,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1646,10 +1649,10 @@
         <v>125</v>
       </c>
       <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
         <v>141</v>
-      </c>
-      <c r="J14" t="s">
-        <v>144</v>
       </c>
       <c r="K14" t="s">
         <v>121</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1681,10 +1684,10 @@
         <v>125</v>
       </c>
       <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
         <v>141</v>
-      </c>
-      <c r="J15" t="s">
-        <v>144</v>
       </c>
       <c r="K15" t="s">
         <v>121</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1797,7 +1800,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1902,7 +1905,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -2042,7 +2045,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2112,7 +2115,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2147,7 +2150,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2182,7 +2185,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2252,7 +2255,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2322,7 +2325,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2357,7 +2360,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2392,7 +2395,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2462,7 +2465,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2567,7 +2570,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2602,7 +2605,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2637,7 +2640,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -2707,7 +2710,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -2812,7 +2815,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -2836,10 +2839,10 @@
         <v>134</v>
       </c>
       <c r="I48" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" t="s">
         <v>135</v>
-      </c>
-      <c r="J48" t="s">
-        <v>136</v>
       </c>
       <c r="K48" t="s">
         <v>121</v>
@@ -2847,7 +2850,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2941,10 +2944,10 @@
         <v>134</v>
       </c>
       <c r="I51" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="J51" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="K51" t="s">
         <v>121</v>
@@ -2952,7 +2955,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2976,10 +2979,10 @@
         <v>134</v>
       </c>
       <c r="I52" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="J52" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="K52" t="s">
         <v>121</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -3011,10 +3014,10 @@
         <v>125</v>
       </c>
       <c r="I53" t="s">
+        <v>142</v>
+      </c>
+      <c r="J53" t="s">
         <v>141</v>
-      </c>
-      <c r="J53" t="s">
-        <v>142</v>
       </c>
       <c r="K53" t="s">
         <v>121</v>
@@ -3022,7 +3025,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -3092,7 +3095,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3162,7 +3165,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3197,7 +3200,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3232,7 +3235,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3267,7 +3270,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3302,7 +3305,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -3337,7 +3340,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -3407,7 +3410,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
         <v>40</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
@@ -3477,7 +3480,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
@@ -3512,7 +3515,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -3547,7 +3550,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -3582,7 +3585,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3617,7 +3620,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3652,7 +3655,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -3687,7 +3690,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -3722,7 +3725,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
@@ -3757,7 +3760,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -3792,7 +3795,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
         <v>42</v>
@@ -3827,7 +3830,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s">
         <v>42</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3897,7 +3900,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3967,7 +3970,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -4002,7 +4005,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -4037,7 +4040,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -4072,7 +4075,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -4142,7 +4145,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -4177,7 +4180,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -4212,7 +4215,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -4247,7 +4250,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -4282,7 +4285,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -4317,7 +4320,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -4352,7 +4355,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -4387,7 +4390,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
@@ -4422,7 +4425,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -4457,7 +4460,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s">
         <v>52</v>
@@ -4492,7 +4495,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -4527,7 +4530,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
@@ -4562,7 +4565,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -4597,7 +4600,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B99" t="s">
         <v>52</v>

--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F67150-4560-0648-B910-6ED2068B4FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EAF7E7-E48F-914D-8845-1212E113C06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="239">
   <si>
     <t>DOI</t>
   </si>
@@ -400,30 +400,18 @@
     <t>Measured value</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
-    <t>EC50</t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
     <t>Cell count</t>
   </si>
   <si>
-    <t>RNA count</t>
-  </si>
-  <si>
     <t>Calculated value</t>
   </si>
   <si>
@@ -433,15 +421,9 @@
     <t>Relative luminescence</t>
   </si>
   <si>
-    <t>Protein concentration</t>
-  </si>
-  <si>
     <t>Cytokine concentration</t>
   </si>
   <si>
-    <t>Delta Delta Ct</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -751,10 +733,10 @@
     <t>10.1038:s41587-023-01931-4_log_fig5</t>
   </si>
   <si>
-    <t>Signal</t>
-  </si>
-  <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G38" zoomScale="200" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="H62" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1152,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1205,7 +1187,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1229,10 +1211,10 @@
         <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
         <v>121</v>
@@ -1240,7 +1222,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1264,10 +1246,10 @@
         <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
         <v>121</v>
@@ -1275,7 +1257,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1299,10 +1281,10 @@
         <v>125</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
         <v>121</v>
@@ -1310,7 +1292,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1334,10 +1316,10 @@
         <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
         <v>121</v>
@@ -1345,7 +1327,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1380,7 +1362,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1415,7 +1397,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1436,13 +1418,13 @@
         <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
         <v>121</v>
@@ -1450,7 +1432,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1471,13 +1453,13 @@
         <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
         <v>121</v>
@@ -1485,7 +1467,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1506,13 +1488,13 @@
         <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
         <v>121</v>
@@ -1520,7 +1502,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1541,13 +1523,13 @@
         <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
         <v>121</v>
@@ -1555,7 +1537,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1590,7 +1572,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1625,7 +1607,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1649,10 +1631,10 @@
         <v>125</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
         <v>121</v>
@@ -1660,7 +1642,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1684,10 +1666,10 @@
         <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
         <v>121</v>
@@ -1695,7 +1677,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1719,10 +1701,10 @@
         <v>125</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
         <v>121</v>
@@ -1730,7 +1712,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1754,10 +1736,10 @@
         <v>125</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s">
         <v>121</v>
@@ -1765,7 +1747,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1789,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18" t="s">
         <v>121</v>
@@ -1800,7 +1782,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1824,10 +1806,10 @@
         <v>125</v>
       </c>
       <c r="I19" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K19" t="s">
         <v>121</v>
@@ -1835,7 +1817,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1859,10 +1841,10 @@
         <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s">
         <v>121</v>
@@ -1870,7 +1852,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1894,10 +1876,10 @@
         <v>125</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K21" t="s">
         <v>121</v>
@@ -1905,7 +1887,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1929,10 +1911,10 @@
         <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22" t="s">
         <v>121</v>
@@ -1940,7 +1922,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1964,10 +1946,10 @@
         <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
         <v>121</v>
@@ -1975,7 +1957,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1999,7 +1981,7 @@
         <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
         <v>67</v>
@@ -2010,7 +1992,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -2034,7 +2016,7 @@
         <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
         <v>67</v>
@@ -2045,7 +2027,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -2069,7 +2051,7 @@
         <v>125</v>
       </c>
       <c r="I26" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
         <v>67</v>
@@ -2080,7 +2062,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2104,7 +2086,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
         <v>67</v>
@@ -2115,7 +2097,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2139,7 +2121,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
         <v>67</v>
@@ -2150,7 +2132,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2174,7 +2156,7 @@
         <v>125</v>
       </c>
       <c r="I29" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
         <v>67</v>
@@ -2185,7 +2167,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -2209,7 +2191,7 @@
         <v>125</v>
       </c>
       <c r="I30" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J30" t="s">
         <v>67</v>
@@ -2220,7 +2202,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2244,7 +2226,7 @@
         <v>125</v>
       </c>
       <c r="I31" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
         <v>67</v>
@@ -2255,7 +2237,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2279,10 +2261,10 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K32" t="s">
         <v>121</v>
@@ -2290,7 +2272,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2311,13 +2293,13 @@
         <v>122</v>
       </c>
       <c r="H33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K33" t="s">
         <v>121</v>
@@ -2325,7 +2307,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2346,13 +2328,13 @@
         <v>122</v>
       </c>
       <c r="H34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s">
         <v>121</v>
@@ -2360,7 +2342,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2381,13 +2363,13 @@
         <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" t="s">
         <v>121</v>
@@ -2395,7 +2377,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2416,13 +2398,13 @@
         <v>122</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s">
         <v>121</v>
@@ -2430,7 +2412,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2451,13 +2433,13 @@
         <v>122</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s">
         <v>121</v>
@@ -2465,7 +2447,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2500,7 +2482,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2535,7 +2517,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2570,7 +2552,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2605,7 +2587,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2626,13 +2608,13 @@
         <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s">
         <v>121</v>
@@ -2640,7 +2622,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2675,7 +2657,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -2696,13 +2678,13 @@
         <v>122</v>
       </c>
       <c r="H44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K44" t="s">
         <v>121</v>
@@ -2710,7 +2692,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -2745,7 +2727,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -2780,7 +2762,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -2815,7 +2797,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -2836,13 +2818,13 @@
         <v>122</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s">
         <v>121</v>
@@ -2850,7 +2832,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2874,7 +2856,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J49" t="s">
         <v>67</v>
@@ -2885,7 +2867,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2909,7 +2891,7 @@
         <v>125</v>
       </c>
       <c r="I50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J50" t="s">
         <v>67</v>
@@ -2920,7 +2902,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2941,13 +2923,13 @@
         <v>122</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I51" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J51" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K51" t="s">
         <v>121</v>
@@ -2955,7 +2937,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2976,13 +2958,13 @@
         <v>122</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I52" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J52" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K52" t="s">
         <v>121</v>
@@ -2990,7 +2972,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -3014,10 +2996,10 @@
         <v>125</v>
       </c>
       <c r="I53" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J53" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K53" t="s">
         <v>121</v>
@@ -3025,7 +3007,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -3060,7 +3042,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -3095,7 +3077,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3116,13 +3098,13 @@
         <v>122</v>
       </c>
       <c r="H56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K56" t="s">
         <v>121</v>
@@ -3130,7 +3112,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3151,13 +3133,13 @@
         <v>122</v>
       </c>
       <c r="H57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K57" t="s">
         <v>121</v>
@@ -3165,7 +3147,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3186,13 +3168,13 @@
         <v>122</v>
       </c>
       <c r="H58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K58" t="s">
         <v>121</v>
@@ -3200,7 +3182,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3221,13 +3203,13 @@
         <v>122</v>
       </c>
       <c r="H59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K59" t="s">
         <v>121</v>
@@ -3235,7 +3217,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3256,13 +3238,13 @@
         <v>122</v>
       </c>
       <c r="H60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K60" t="s">
         <v>121</v>
@@ -3270,7 +3252,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3291,13 +3273,13 @@
         <v>122</v>
       </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K61" t="s">
         <v>121</v>
@@ -3305,7 +3287,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -3326,13 +3308,13 @@
         <v>122</v>
       </c>
       <c r="H62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K62" t="s">
         <v>121</v>
@@ -3340,7 +3322,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
@@ -3361,13 +3343,13 @@
         <v>122</v>
       </c>
       <c r="H63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K63" t="s">
         <v>121</v>
@@ -3375,7 +3357,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -3396,13 +3378,13 @@
         <v>122</v>
       </c>
       <c r="H64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K64" t="s">
         <v>121</v>
@@ -3410,7 +3392,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B65" t="s">
         <v>40</v>
@@ -3434,10 +3416,10 @@
         <v>125</v>
       </c>
       <c r="I65" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="J65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K65" t="s">
         <v>121</v>
@@ -3445,7 +3427,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
@@ -3469,10 +3451,10 @@
         <v>125</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K66" t="s">
         <v>121</v>
@@ -3480,7 +3462,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
@@ -3504,10 +3486,10 @@
         <v>125</v>
       </c>
       <c r="I67" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K67" t="s">
         <v>121</v>
@@ -3515,7 +3497,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -3539,10 +3521,10 @@
         <v>125</v>
       </c>
       <c r="I68" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="J68" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K68" t="s">
         <v>121</v>
@@ -3550,7 +3532,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -3585,7 +3567,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3620,7 +3602,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3655,7 +3637,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -3679,7 +3661,7 @@
         <v>125</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J72" t="s">
         <v>67</v>
@@ -3690,7 +3672,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -3714,7 +3696,7 @@
         <v>125</v>
       </c>
       <c r="I73" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J73" t="s">
         <v>67</v>
@@ -3725,7 +3707,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
@@ -3749,7 +3731,7 @@
         <v>125</v>
       </c>
       <c r="I74" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J74" t="s">
         <v>67</v>
@@ -3760,7 +3742,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -3784,7 +3766,7 @@
         <v>125</v>
       </c>
       <c r="I75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J75" t="s">
         <v>67</v>
@@ -3795,7 +3777,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B76" t="s">
         <v>42</v>
@@ -3819,7 +3801,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J76" t="s">
         <v>67</v>
@@ -3830,7 +3812,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
         <v>42</v>
@@ -3854,7 +3836,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J77" t="s">
         <v>67</v>
@@ -3865,7 +3847,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3889,7 +3871,7 @@
         <v>125</v>
       </c>
       <c r="I78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J78" t="s">
         <v>67</v>
@@ -3900,7 +3882,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3924,7 +3906,7 @@
         <v>125</v>
       </c>
       <c r="I79" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="J79" t="s">
         <v>67</v>
@@ -3935,7 +3917,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3959,7 +3941,7 @@
         <v>125</v>
       </c>
       <c r="I80" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J80" t="s">
         <v>67</v>
@@ -3970,7 +3952,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -3994,7 +3976,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J81" t="s">
         <v>67</v>
@@ -4005,7 +3987,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -4029,7 +4011,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J82" t="s">
         <v>67</v>
@@ -4040,7 +4022,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -4064,7 +4046,7 @@
         <v>125</v>
       </c>
       <c r="I83" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J83" t="s">
         <v>67</v>
@@ -4075,7 +4057,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -4099,7 +4081,7 @@
         <v>125</v>
       </c>
       <c r="I84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J84" t="s">
         <v>67</v>
@@ -4110,7 +4092,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -4134,7 +4116,7 @@
         <v>125</v>
       </c>
       <c r="I85" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J85" t="s">
         <v>67</v>
@@ -4145,7 +4127,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -4169,7 +4151,7 @@
         <v>125</v>
       </c>
       <c r="I86" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="J86" t="s">
         <v>67</v>
@@ -4180,7 +4162,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -4204,7 +4186,7 @@
         <v>125</v>
       </c>
       <c r="I87" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="J87" t="s">
         <v>67</v>
@@ -4215,7 +4197,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -4239,7 +4221,7 @@
         <v>125</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J88" t="s">
         <v>67</v>
@@ -4250,7 +4232,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -4274,7 +4256,7 @@
         <v>125</v>
       </c>
       <c r="I89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J89" t="s">
         <v>67</v>
@@ -4285,7 +4267,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -4309,7 +4291,7 @@
         <v>125</v>
       </c>
       <c r="I90" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J90" t="s">
         <v>67</v>
@@ -4320,7 +4302,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -4344,7 +4326,7 @@
         <v>125</v>
       </c>
       <c r="I91" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J91" t="s">
         <v>67</v>
@@ -4355,7 +4337,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -4379,7 +4361,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J92" t="s">
         <v>67</v>
@@ -4390,7 +4372,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
@@ -4414,7 +4396,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J93" t="s">
         <v>67</v>
@@ -4425,7 +4407,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -4449,7 +4431,7 @@
         <v>125</v>
       </c>
       <c r="I94" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J94" t="s">
         <v>67</v>
@@ -4460,7 +4442,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B95" t="s">
         <v>52</v>
@@ -4495,7 +4477,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -4530,7 +4512,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
@@ -4565,7 +4547,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -4600,7 +4582,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
         <v>52</v>

--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EAF7E7-E48F-914D-8845-1212E113C06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DAFB53-F526-6049-A8F8-402823D6128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="237">
   <si>
     <t>DOI</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Human CD45+ cells per gram</t>
   </si>
   <si>
-    <t>Fold change</t>
-  </si>
-  <si>
     <t>Number of spectra factors</t>
   </si>
   <si>
@@ -728,9 +725,6 @@
   </si>
   <si>
     <t>10.1038:s41587-023-01931-4_log_fig4</t>
-  </si>
-  <si>
-    <t>10.1038:s41587-023-01931-4_log_fig5</t>
   </si>
   <si>
     <t>Others</t>
@@ -1137,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H62" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1146,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1170,24 +1164,24 @@
         <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1205,24 +1199,24 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
         <v>122</v>
       </c>
-      <c r="H2" t="s">
-        <v>123</v>
-      </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1240,24 +1234,24 @@
         <v>54</v>
       </c>
       <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" t="s">
         <v>122</v>
       </c>
-      <c r="H3" t="s">
-        <v>123</v>
-      </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1275,24 +1269,24 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1310,24 +1304,24 @@
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1345,24 +1339,24 @@
         <v>57</v>
       </c>
       <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
         <v>122</v>
       </c>
-      <c r="H6" t="s">
-        <v>123</v>
-      </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1380,24 +1374,24 @@
         <v>58</v>
       </c>
       <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
         <v>122</v>
       </c>
-      <c r="H7" t="s">
-        <v>123</v>
-      </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1415,24 +1409,24 @@
         <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1450,24 +1444,24 @@
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
         <v>130</v>
       </c>
-      <c r="I9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" t="s">
-        <v>131</v>
-      </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1485,24 +1479,24 @@
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" t="s">
         <v>130</v>
       </c>
-      <c r="I10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" t="s">
-        <v>131</v>
-      </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1520,24 +1514,24 @@
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1555,24 +1549,24 @@
         <v>62</v>
       </c>
       <c r="G12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" t="s">
         <v>122</v>
       </c>
-      <c r="H12" t="s">
-        <v>123</v>
-      </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1590,24 +1584,24 @@
         <v>62</v>
       </c>
       <c r="G13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" t="s">
         <v>122</v>
       </c>
-      <c r="H13" t="s">
-        <v>123</v>
-      </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1625,24 +1619,24 @@
         <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1660,24 +1654,24 @@
         <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1695,24 +1689,24 @@
         <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1730,24 +1724,24 @@
         <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1765,24 +1759,24 @@
         <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1800,24 +1794,24 @@
         <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1835,24 +1829,24 @@
         <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1870,24 +1864,24 @@
         <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1905,24 +1899,24 @@
         <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1940,24 +1934,24 @@
         <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1975,10 +1969,10 @@
         <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
         <v>67</v>
@@ -1987,12 +1981,12 @@
         <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -2010,10 +2004,10 @@
         <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
         <v>67</v>
@@ -2022,12 +2016,12 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -2045,10 +2039,10 @@
         <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
         <v>67</v>
@@ -2057,12 +2051,12 @@
         <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2080,10 +2074,10 @@
         <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
         <v>67</v>
@@ -2092,12 +2086,12 @@
         <v>67</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2115,10 +2109,10 @@
         <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
         <v>67</v>
@@ -2127,12 +2121,12 @@
         <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2150,10 +2144,10 @@
         <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
         <v>67</v>
@@ -2162,12 +2156,12 @@
         <v>67</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -2185,10 +2179,10 @@
         <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
         <v>67</v>
@@ -2197,12 +2191,12 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2220,10 +2214,10 @@
         <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
         <v>67</v>
@@ -2232,12 +2226,12 @@
         <v>67</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2255,24 +2249,24 @@
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2290,24 +2284,24 @@
         <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2325,24 +2319,24 @@
         <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2360,24 +2354,24 @@
         <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2395,24 +2389,24 @@
         <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2430,24 +2424,24 @@
         <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2465,24 +2459,24 @@
         <v>75</v>
       </c>
       <c r="G38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" t="s">
         <v>122</v>
       </c>
-      <c r="H38" t="s">
-        <v>123</v>
-      </c>
       <c r="I38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2500,24 +2494,24 @@
         <v>75</v>
       </c>
       <c r="G39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" t="s">
         <v>122</v>
       </c>
-      <c r="H39" t="s">
-        <v>123</v>
-      </c>
       <c r="I39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2535,24 +2529,24 @@
         <v>75</v>
       </c>
       <c r="G40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" t="s">
         <v>122</v>
       </c>
-      <c r="H40" t="s">
-        <v>123</v>
-      </c>
       <c r="I40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2570,24 +2564,24 @@
         <v>75</v>
       </c>
       <c r="G41" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" t="s">
         <v>122</v>
       </c>
-      <c r="H41" t="s">
-        <v>123</v>
-      </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2605,24 +2599,24 @@
         <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2640,24 +2634,24 @@
         <v>77</v>
       </c>
       <c r="G43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" t="s">
         <v>122</v>
       </c>
-      <c r="H43" t="s">
-        <v>123</v>
-      </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -2675,24 +2669,24 @@
         <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -2710,10 +2704,10 @@
         <v>79</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I45" t="s">
         <v>67</v>
@@ -2722,12 +2716,12 @@
         <v>67</v>
       </c>
       <c r="K45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -2742,13 +2736,13 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I46" t="s">
         <v>67</v>
@@ -2757,12 +2751,12 @@
         <v>67</v>
       </c>
       <c r="K46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -2777,13 +2771,13 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I47" t="s">
         <v>67</v>
@@ -2792,12 +2786,12 @@
         <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -2815,24 +2809,24 @@
         <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H48" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" t="s">
         <v>130</v>
       </c>
-      <c r="I48" t="s">
-        <v>132</v>
-      </c>
-      <c r="J48" t="s">
-        <v>131</v>
-      </c>
       <c r="K48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2850,24 +2844,24 @@
         <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J49" t="s">
         <v>67</v>
       </c>
       <c r="K49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2885,24 +2879,24 @@
         <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J50" t="s">
         <v>67</v>
       </c>
       <c r="K50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2920,24 +2914,24 @@
         <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2955,24 +2949,24 @@
         <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -2990,24 +2984,24 @@
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -3025,10 +3019,10 @@
         <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
         <v>67</v>
@@ -3037,12 +3031,12 @@
         <v>67</v>
       </c>
       <c r="K54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -3060,10 +3054,10 @@
         <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
         <v>67</v>
@@ -3072,12 +3066,12 @@
         <v>67</v>
       </c>
       <c r="K55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3095,24 +3089,24 @@
         <v>86</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3130,24 +3124,24 @@
         <v>86</v>
       </c>
       <c r="G57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3165,24 +3159,24 @@
         <v>86</v>
       </c>
       <c r="G58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3200,24 +3194,24 @@
         <v>86</v>
       </c>
       <c r="G59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3235,24 +3229,24 @@
         <v>86</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3270,24 +3264,24 @@
         <v>86</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -3305,24 +3299,24 @@
         <v>86</v>
       </c>
       <c r="G62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
@@ -3340,24 +3334,24 @@
         <v>86</v>
       </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -3375,24 +3369,24 @@
         <v>86</v>
       </c>
       <c r="G64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
         <v>40</v>
@@ -3410,24 +3404,24 @@
         <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I65" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
@@ -3445,24 +3439,24 @@
         <v>89</v>
       </c>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
@@ -3480,24 +3474,24 @@
         <v>89</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -3515,24 +3509,24 @@
         <v>89</v>
       </c>
       <c r="G68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -3550,24 +3544,24 @@
         <v>90</v>
       </c>
       <c r="G69" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" t="s">
         <v>122</v>
       </c>
-      <c r="H69" t="s">
-        <v>123</v>
-      </c>
       <c r="I69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3585,24 +3579,24 @@
         <v>91</v>
       </c>
       <c r="G70" t="s">
+        <v>121</v>
+      </c>
+      <c r="H70" t="s">
         <v>122</v>
       </c>
-      <c r="H70" t="s">
-        <v>123</v>
-      </c>
       <c r="I70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3620,24 +3614,24 @@
         <v>91</v>
       </c>
       <c r="G71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71" t="s">
         <v>122</v>
       </c>
-      <c r="H71" t="s">
-        <v>123</v>
-      </c>
       <c r="I71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -3655,24 +3649,24 @@
         <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J72" t="s">
         <v>67</v>
       </c>
       <c r="K72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -3690,24 +3684,24 @@
         <v>101</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J73" t="s">
         <v>67</v>
       </c>
       <c r="K73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
@@ -3725,24 +3719,24 @@
         <v>102</v>
       </c>
       <c r="G74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J74" t="s">
         <v>67</v>
       </c>
       <c r="K74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -3760,24 +3754,24 @@
         <v>103</v>
       </c>
       <c r="G75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J75" t="s">
         <v>67</v>
       </c>
       <c r="K75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
         <v>42</v>
@@ -3795,24 +3789,24 @@
         <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J76" t="s">
         <v>67</v>
       </c>
       <c r="K76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B77" t="s">
         <v>42</v>
@@ -3830,24 +3824,24 @@
         <v>105</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J77" t="s">
         <v>67</v>
       </c>
       <c r="K77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3865,24 +3859,24 @@
         <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J78" t="s">
         <v>67</v>
       </c>
       <c r="K78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3900,10 +3894,10 @@
         <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I79" t="s">
         <v>67</v>
@@ -3912,12 +3906,12 @@
         <v>67</v>
       </c>
       <c r="K79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3935,24 +3929,24 @@
         <v>108</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J80" t="s">
         <v>67</v>
       </c>
       <c r="K80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -3970,24 +3964,24 @@
         <v>109</v>
       </c>
       <c r="G81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J81" t="s">
         <v>67</v>
       </c>
       <c r="K81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -4005,24 +3999,24 @@
         <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J82" t="s">
         <v>67</v>
       </c>
       <c r="K82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -4040,24 +4034,24 @@
         <v>95</v>
       </c>
       <c r="G83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J83" t="s">
         <v>67</v>
       </c>
       <c r="K83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -4075,24 +4069,24 @@
         <v>111</v>
       </c>
       <c r="G84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J84" t="s">
         <v>67</v>
       </c>
       <c r="K84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -4110,24 +4104,24 @@
         <v>112</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J85" t="s">
         <v>67</v>
       </c>
       <c r="K85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -4145,10 +4139,10 @@
         <v>107</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I86" t="s">
         <v>67</v>
@@ -4157,12 +4151,12 @@
         <v>67</v>
       </c>
       <c r="K86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -4180,10 +4174,10 @@
         <v>107</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I87" t="s">
         <v>67</v>
@@ -4192,12 +4186,12 @@
         <v>67</v>
       </c>
       <c r="K87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -4215,24 +4209,24 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J88" t="s">
         <v>67</v>
       </c>
       <c r="K88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -4250,24 +4244,24 @@
         <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J89" t="s">
         <v>67</v>
       </c>
       <c r="K89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -4285,24 +4279,24 @@
         <v>96</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J90" t="s">
         <v>67</v>
       </c>
       <c r="K90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -4320,24 +4314,24 @@
         <v>97</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J91" t="s">
         <v>67</v>
       </c>
       <c r="K91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -4355,24 +4349,24 @@
         <v>98</v>
       </c>
       <c r="G92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J92" t="s">
         <v>67</v>
       </c>
       <c r="K92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
@@ -4390,24 +4384,24 @@
         <v>99</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J93" t="s">
         <v>67</v>
       </c>
       <c r="K93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -4425,24 +4419,24 @@
         <v>100</v>
       </c>
       <c r="G94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J94" t="s">
         <v>67</v>
       </c>
       <c r="K94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B95" t="s">
         <v>52</v>
@@ -4457,13 +4451,13 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I95" t="s">
         <v>67</v>
@@ -4472,12 +4466,12 @@
         <v>67</v>
       </c>
       <c r="K95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -4492,13 +4486,13 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I96" t="s">
         <v>67</v>
@@ -4507,12 +4501,12 @@
         <v>67</v>
       </c>
       <c r="K96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
@@ -4527,13 +4521,13 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I97" t="s">
         <v>67</v>
@@ -4542,12 +4536,12 @@
         <v>67</v>
       </c>
       <c r="K97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -4562,13 +4556,13 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I98" t="s">
         <v>67</v>
@@ -4577,42 +4571,7 @@
         <v>67</v>
       </c>
       <c r="K98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" t="s">
-        <v>122</v>
-      </c>
-      <c r="H99" t="s">
-        <v>123</v>
-      </c>
-      <c r="I99" t="s">
-        <v>123</v>
-      </c>
-      <c r="J99" t="s">
-        <v>123</v>
-      </c>
-      <c r="K99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_biotechnol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_biotechnol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DAFB53-F526-6049-A8F8-402823D6128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816503E-38B6-BF4B-A0B8-30EBBDAE1FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,6 @@
     <t>10.1038:s41587-023-01931-4</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Relative expression</t>
   </si>
   <si>
@@ -373,12 +370,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -731,6 +722,15 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1146,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1161,27 +1161,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1196,27 +1196,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1231,27 +1231,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1266,27 +1266,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
         <v>124</v>
       </c>
-      <c r="I4" t="s">
-        <v>127</v>
-      </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1301,27 +1301,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
         <v>124</v>
       </c>
-      <c r="I5" t="s">
-        <v>127</v>
-      </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1336,27 +1336,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1371,27 +1371,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1406,27 +1406,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1441,27 +1441,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1476,27 +1476,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1511,27 +1511,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1546,27 +1546,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1581,27 +1581,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1616,27 +1616,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1651,27 +1651,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1686,27 +1686,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
         <v>123</v>
       </c>
-      <c r="H16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" t="s">
-        <v>126</v>
-      </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1721,27 +1721,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
         <v>123</v>
       </c>
-      <c r="H17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" t="s">
-        <v>126</v>
-      </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1756,27 +1756,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" t="s">
         <v>123</v>
       </c>
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" t="s">
-        <v>126</v>
-      </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1791,27 +1791,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s">
         <v>123</v>
       </c>
-      <c r="H19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" t="s">
-        <v>126</v>
-      </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1826,27 +1826,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" t="s">
         <v>123</v>
       </c>
-      <c r="H20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" t="s">
-        <v>126</v>
-      </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1861,27 +1861,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" t="s">
         <v>123</v>
       </c>
-      <c r="H21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" t="s">
-        <v>126</v>
-      </c>
       <c r="J21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1896,27 +1896,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" t="s">
         <v>123</v>
       </c>
-      <c r="H22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" t="s">
-        <v>126</v>
-      </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1931,27 +1931,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" t="s">
         <v>123</v>
       </c>
-      <c r="H23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" t="s">
-        <v>126</v>
-      </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1966,27 +1966,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -2001,27 +2001,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -2036,27 +2036,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2071,27 +2071,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2106,27 +2106,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2141,27 +2141,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -2176,27 +2176,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2211,27 +2211,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2246,27 +2246,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2281,27 +2281,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2316,27 +2316,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2351,27 +2351,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -2386,27 +2386,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -2421,27 +2421,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -2456,27 +2456,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2491,27 +2491,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -2526,27 +2526,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -2561,27 +2561,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2596,27 +2596,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2631,27 +2631,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -2666,27 +2666,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -2701,27 +2701,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -2736,27 +2736,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -2771,27 +2771,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -2806,27 +2806,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2841,27 +2841,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2876,27 +2876,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2911,27 +2911,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H51" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2946,27 +2946,27 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -2981,27 +2981,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H53" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -3016,27 +3016,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -3051,27 +3051,27 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3086,27 +3086,27 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -3121,27 +3121,27 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K57" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3156,27 +3156,27 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3191,27 +3191,27 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -3226,27 +3226,27 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s">
         <v>39</v>
@@ -3261,27 +3261,27 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -3296,27 +3296,27 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
@@ -3331,27 +3331,27 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -3366,27 +3366,27 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
         <v>40</v>
@@ -3401,27 +3401,27 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" t="s">
+        <v>121</v>
+      </c>
+      <c r="I65" t="s">
+        <v>233</v>
+      </c>
+      <c r="J65" t="s">
         <v>123</v>
       </c>
-      <c r="H65" t="s">
-        <v>124</v>
-      </c>
-      <c r="I65" t="s">
-        <v>236</v>
-      </c>
-      <c r="J65" t="s">
-        <v>126</v>
-      </c>
       <c r="K65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
@@ -3436,27 +3436,27 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
+        <v>120</v>
+      </c>
+      <c r="H66" t="s">
+        <v>121</v>
+      </c>
+      <c r="I66" t="s">
+        <v>233</v>
+      </c>
+      <c r="J66" t="s">
         <v>123</v>
       </c>
-      <c r="H66" t="s">
-        <v>124</v>
-      </c>
-      <c r="I66" t="s">
-        <v>236</v>
-      </c>
-      <c r="J66" t="s">
-        <v>126</v>
-      </c>
       <c r="K66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
@@ -3471,27 +3471,27 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I67" t="s">
+        <v>233</v>
+      </c>
+      <c r="J67" t="s">
         <v>123</v>
       </c>
-      <c r="H67" t="s">
-        <v>124</v>
-      </c>
-      <c r="I67" t="s">
-        <v>236</v>
-      </c>
-      <c r="J67" t="s">
-        <v>126</v>
-      </c>
       <c r="K67" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -3506,27 +3506,27 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" t="s">
+        <v>233</v>
+      </c>
+      <c r="J68" t="s">
         <v>123</v>
       </c>
-      <c r="H68" t="s">
-        <v>124</v>
-      </c>
-      <c r="I68" t="s">
-        <v>236</v>
-      </c>
-      <c r="J68" t="s">
-        <v>126</v>
-      </c>
       <c r="K68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
@@ -3541,27 +3541,27 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3576,27 +3576,27 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K70" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3611,27 +3611,27 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -3646,27 +3646,27 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I72" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -3681,27 +3681,27 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H73" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I73" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K73" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
         <v>42</v>
@@ -3716,27 +3716,27 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H74" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I74" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -3751,27 +3751,27 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H75" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I75" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B76" t="s">
         <v>42</v>
@@ -3786,27 +3786,27 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H76" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I76" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B77" t="s">
         <v>42</v>
@@ -3821,27 +3821,27 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H77" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I77" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K77" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
         <v>42</v>
@@ -3856,27 +3856,27 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G78" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I78" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K78" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3891,27 +3891,27 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K79" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
@@ -3926,27 +3926,27 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G80" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H80" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K80" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
@@ -3961,27 +3961,27 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G81" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I81" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -3996,27 +3996,27 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G82" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I82" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K82" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
@@ -4031,27 +4031,27 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G83" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H83" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K83" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
@@ -4066,27 +4066,27 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H84" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
@@ -4101,27 +4101,27 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G85" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H85" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I85" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K85" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -4136,27 +4136,27 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G86" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H86" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
@@ -4171,27 +4171,27 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -4206,27 +4206,27 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I88" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K88" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -4241,27 +4241,27 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I89" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -4276,27 +4276,27 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K90" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
@@ -4311,27 +4311,27 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G91" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I91" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K91" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -4346,27 +4346,27 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I92" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K92" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
@@ -4381,27 +4381,27 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -4416,27 +4416,27 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I94" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K94" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B95" t="s">
         <v>52</v>
@@ -4451,27 +4451,27 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G95" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K95" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -4486,27 +4486,27 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G96" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K96" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
@@ -4521,27 +4521,27 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K97" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -4556,22 +4556,22 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
